--- a/data/trans_dic/P32A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P32A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,07%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,58; 2,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,69; 5,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,39; 6,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>2,85; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>0,0; 6,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,6; 2,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,2; 3,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,02; 5,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>2,26; 5,96</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,63; 1,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>1,93; 3,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>1,16; 2,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,59; 1,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,68; 2,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,28; 1,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,76; 3,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,43; 1,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,7; 3,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,95; 2,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,79; 2,05</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>1,11; 5,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,55; 3,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,15; 1,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,16; 1,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,72; 2,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,96; 2,91</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,66; 1,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,46; 2,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,3; 2,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,1; 0,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,37; 1,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0,77; 2,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,89; 2,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>0,55; 1,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,5; 2,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,34; 2,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>1,28; 2,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 7,65</t>
+          <t>2,8; 7,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,96</t>
+          <t>2,25; 6,01</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,9</t>
+          <t>0,57; 1,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,64</t>
+          <t>0,46; 2,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,05</t>
+          <t>0,68; 1,94</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,81; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,27</t>
+          <t>0,53; 3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,91</t>
+          <t>0,94; 2,89</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,63%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,48</t>
+          <t>1,27; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,71</t>
+          <t>0,66; 2,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,37</t>
+          <t>1,16; 2,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,27 +725,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,98</t>
+          <t>0,57; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,39</t>
+          <t>1,73; 5,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,53</t>
+          <t>2,33; 6,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,62</t>
+          <t>2,73; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,81</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,74</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,59</t>
+          <t>0,5; 2,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,74</t>
+          <t>1,16; 3,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,46</t>
+          <t>2,07; 5,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,01</t>
+          <t>2,32; 5,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,8</t>
+          <t>0,57; 1,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,95</t>
+          <t>1,98; 3,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,76</t>
+          <t>1,18; 2,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,94</t>
+          <t>0,57; 1,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,76</t>
+          <t>0,54; 2,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,59</t>
+          <t>0,15; 1,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,82</t>
+          <t>0,37; 2,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,34</t>
+          <t>0,43; 1,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 3,42</t>
+          <t>1,66; 3,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,07</t>
+          <t>0,98; 2,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 1,94</t>
+          <t>0,7; 1,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,68</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,0; 1,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,47</t>
+          <t>0,76; 3,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,67</t>
+          <t>1,2; 5,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,16</t>
+          <t>0,53; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,4</t>
+          <t>0,16; 1,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,4</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,75</t>
+          <t>0,82; 3,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,89</t>
+          <t>0,91; 2,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,58</t>
+          <t>0,69; 1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,95; 3,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,73</t>
+          <t>1,39; 2,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,43</t>
+          <t>1,28; 2,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,9</t>
+          <t>0,1; 0,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,65</t>
+          <t>0,38; 1,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,23</t>
+          <t>0,75; 2,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,39</t>
+          <t>0,68; 2,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,28</t>
+          <t>0,55; 1,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,58</t>
+          <t>1,52; 2,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,35</t>
+          <t>1,3; 2,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,25</t>
+          <t>1,15; 2,2</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le ha molestado que le criticasen la forma de beber</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6682</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15939</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14611</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11215</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2298</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7606</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15939</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16909</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12069</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2678; 15011</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8812; 26614</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8374; 23345</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6649; 17968</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4621</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8380</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2606</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3161; 15695</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8589; 26967</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10204; 27355</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7208; 18164</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11566</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>33848</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23372</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10607</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8100</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9710</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12584</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41949</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28566</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20317</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6046; 18877</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23616; 47303</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14806; 33968</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5611; 18970</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5974</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3189; 16821</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1116; 11511</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2639; 19076</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6782; 20609</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29577; 56426</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>19530; 40845</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11759; 33465</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1841</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7991</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3532</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2766</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10020</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9699</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5742</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6376</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6661</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2607; 12381</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5298</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4463</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3344; 16614</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1279; 7380</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>847; 7863</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>849; 7456</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5378; 20336</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5325; 15930</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20089</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>51661</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40012</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27988</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2959</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15484</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14096</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>60654</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>55495</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12904; 30978</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39636; 69143</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27683; 53914</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>19986; 38858</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>924; 7924</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>4015; 17596</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8527; 25088</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6846; 24171</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15185; 34160</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46775; 79173</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40608; 72432</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>29602; 56669</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>